--- a/Assets/StreamingAssets/Story/MainStory/Chapter 0/Clip 0_zh.xlsx
+++ b/Assets/StreamingAssets/Story/MainStory/Chapter 0/Clip 0_zh.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15040" windowHeight="8690"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="133">
   <si>
     <t>Name/姓名</t>
   </si>
@@ -85,6 +85,9 @@
     <t>rain</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>......</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
     <t>appearAt(-400,0)</t>
   </si>
   <si>
-    <t>田逸尘_无表情</t>
+    <t>田逸尘_正常</t>
   </si>
   <si>
     <t>black</t>
@@ -124,7 +127,7 @@
     <t>...算了...坐公交车吧......</t>
   </si>
   <si>
-    <t>田逸尘_沮丧</t>
+    <t>田逸尘_难过</t>
   </si>
   <si>
     <t>希望不会被淋湿。</t>
@@ -259,6 +262,9 @@
   <si>
     <t>照片中三个兽人的面部全都被某种未知物质侵蚀，
 只留下模糊不清的空洞。</t>
+  </si>
+  <si>
+    <t>序章0_1全家福CG</t>
   </si>
   <si>
     <t>不是污渍，不是破损，而是照片本身发生了变化，
@@ -1088,7 +1094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1136,9 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1670,8 +1673,8 @@
   <sheetPr/>
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1741,30 +1744,33 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="6">
         <v>1</v>
@@ -1772,323 +1778,323 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="28" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="56" spans="2:11">
       <c r="B18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" ht="56" spans="2:2">
       <c r="B27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:14">
       <c r="A31" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" ht="56" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="56" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:15">
       <c r="A37" s="2"/>
       <c r="B37" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2099,7 +2105,7 @@
     <row r="38" customFormat="1" spans="1:15">
       <c r="A38" s="2"/>
       <c r="B38" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2107,11 +2113,11 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2121,387 +2127,396 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="28" spans="2:2">
       <c r="B40" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" ht="28" spans="2:2">
       <c r="B41" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" ht="56" spans="2:2">
       <c r="B42" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" ht="28" spans="2:9">
       <c r="B43" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" ht="42" spans="2:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" ht="42" spans="2:10">
       <c r="B44" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" ht="42" spans="2:2">
       <c r="B45" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" ht="56" spans="2:2">
       <c r="B47" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" ht="42" spans="2:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" ht="42" spans="2:4">
       <c r="B48" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="56" spans="2:2">
       <c r="B49" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" ht="56" spans="2:2">
       <c r="B51" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" ht="42" spans="2:2">
       <c r="B54" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" ht="42" spans="2:2">
       <c r="B55" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" ht="28" spans="2:2">
       <c r="B56" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" ht="56" spans="2:2">
       <c r="B57" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" ht="56" spans="2:2">
       <c r="B58" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" ht="56" spans="2:2">
       <c r="B59" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" ht="56" spans="2:2">
       <c r="B60" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" ht="28" spans="2:2">
       <c r="B61" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" ht="84" spans="2:2">
       <c r="B63" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" ht="56" spans="2:2">
       <c r="B65" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" ht="56" spans="1:7">
       <c r="A66" s="12"/>
       <c r="B66" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" ht="42" spans="1:2">
       <c r="A68" s="12"/>
       <c r="B68" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" ht="56" spans="1:2">
       <c r="A69" s="12"/>
       <c r="B69" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" ht="42" spans="2:2">
       <c r="B70" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" ht="28" spans="1:2">
       <c r="A71" s="10"/>
       <c r="B71" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="8"/>
       <c r="B72" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" ht="42" spans="2:2">
       <c r="B74" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" ht="28" spans="2:2">
       <c r="B75" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="12"/>
       <c r="B76" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="12"/>
       <c r="B77" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="2:14">
       <c r="B78" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" ht="56" spans="1:2">
       <c r="A80" s="12"/>
       <c r="B80" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="12"/>
       <c r="B83" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" ht="28" spans="1:2">
       <c r="A84" s="12"/>
       <c r="B84" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" ht="28" spans="1:14">
       <c r="A85" s="12"/>
       <c r="B85" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="8"/>
       <c r="B86" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" ht="56" spans="1:2">
       <c r="A88" s="15"/>
-      <c r="B88" s="16" t="s">
-        <v>120</v>
+      <c r="B88" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" ht="28" spans="2:2">
-      <c r="B92" s="17" t="s">
-        <v>124</v>
+      <c r="B92" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="93" ht="56" spans="1:2">
       <c r="A93" s="8"/>
-      <c r="B93" s="16" t="s">
-        <v>125</v>
+      <c r="B93" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
